--- a/SumCountryCode.xlsx
+++ b/SumCountryCode.xlsx
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>3letterCountryCode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>アシタバ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>アスパラガス</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -459,8 +459,10 @@
           <t>AD</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AND</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -481,8 +483,10 @@
           <t>AE</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ARE</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -503,11 +507,13 @@
           <t>AF</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AFG</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
@@ -525,8 +531,10 @@
           <t>AG</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATG</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -547,8 +555,10 @@
           <t>AI</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AIA</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -569,11 +579,13 @@
           <t>AL</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -591,11 +603,13 @@
           <t>AM</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -613,11 +627,13 @@
           <t>AO</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -635,8 +651,10 @@
           <t>AQ</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATA</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -657,11 +675,13 @@
           <t>AR</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -679,8 +699,10 @@
           <t>AS</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -701,11 +723,13 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AUT</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -723,11 +747,13 @@
           <t>AU</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>1531</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -745,11 +771,13 @@
           <t>AW</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ABW</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -767,11 +795,13 @@
           <t>AX</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -789,11 +819,13 @@
           <t>AZ</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AZE</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -811,8 +843,10 @@
           <t>BA</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BIH</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -833,8 +867,10 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BRB</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -855,8 +891,10 @@
           <t>BD</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BGD</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -877,11 +915,13 @@
           <t>BE</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>3387</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -899,8 +939,10 @@
           <t>BF</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -921,11 +963,13 @@
           <t>BG</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -943,8 +987,10 @@
           <t>BH</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BHR</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -965,8 +1011,10 @@
           <t>BI</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -987,8 +1035,10 @@
           <t>BJ</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1009,8 +1059,10 @@
           <t>BL</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BLM</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1031,8 +1083,10 @@
           <t>BM</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BMU</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1053,8 +1107,10 @@
           <t>BN</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BRN</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1075,11 +1131,13 @@
           <t>BO</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1097,8 +1155,10 @@
           <t>BQ</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BES</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1119,11 +1179,13 @@
           <t>BR</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BRA</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>6</v>
@@ -1141,8 +1203,10 @@
           <t>BS</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BHS</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1163,11 +1227,13 @@
           <t>BT</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BTN</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
@@ -1185,8 +1251,10 @@
           <t>BV</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BVT</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1207,8 +1275,10 @@
           <t>BW</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1229,11 +1299,13 @@
           <t>BY</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BLR</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1251,8 +1323,10 @@
           <t>BZ</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BLZ</t>
+        </is>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1273,11 +1347,13 @@
           <t>CA</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>1647</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1295,8 +1371,10 @@
           <t>CC</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CCK</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1317,8 +1395,10 @@
           <t>CD</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1339,8 +1419,10 @@
           <t>CF</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CAF</t>
+        </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1361,8 +1443,10 @@
           <t>CG</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>COG</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1383,11 +1467,13 @@
           <t>CH</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1405,8 +1491,10 @@
           <t>CI</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CIV</t>
+        </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1427,8 +1515,10 @@
           <t>CK</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>COK</t>
+        </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1449,11 +1539,13 @@
           <t>CL</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1471,8 +1563,10 @@
           <t>CM</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1493,11 +1587,13 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CHN</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>143</v>
@@ -1515,11 +1611,13 @@
           <t>CO</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1537,11 +1635,13 @@
           <t>CR</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1559,11 +1659,13 @@
           <t>CU</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1581,8 +1683,10 @@
           <t>CV</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CPV</t>
+        </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1603,11 +1707,13 @@
           <t>CW</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CUW</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1625,8 +1731,10 @@
           <t>CX</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>0</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CXR</t>
+        </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1647,11 +1755,13 @@
           <t>CY</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>0</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CYP</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1669,11 +1779,13 @@
           <t>CZ</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>0</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1691,11 +1803,13 @@
           <t>DE</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DEU</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>16276</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1713,8 +1827,10 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>0</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1735,11 +1851,13 @@
           <t>DK</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DNK</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>1534</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1757,11 +1875,13 @@
           <t>DM</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>0</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DMA</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1779,11 +1899,13 @@
           <t>DO</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1801,8 +1923,10 @@
           <t>DZ</t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>0</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DZA</t>
+        </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1823,11 +1947,13 @@
           <t>EC</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1845,11 +1971,13 @@
           <t>EE</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>0</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>EST</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1867,8 +1995,10 @@
           <t>EG</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>0</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>EGY</t>
+        </is>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1889,8 +2019,10 @@
           <t>EH</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>0</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ESH</t>
+        </is>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1911,8 +2043,10 @@
           <t>ER</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>0</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ERI</t>
+        </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1933,11 +2067,13 @@
           <t>ES</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>0</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>1470</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1955,11 +2091,13 @@
           <t>ET</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>0</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1977,11 +2115,13 @@
           <t>FI</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FIN</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1999,8 +2139,10 @@
           <t>FJ</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FJI</t>
+        </is>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2021,8 +2163,10 @@
           <t>FK</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FLK</t>
+        </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2043,8 +2187,10 @@
           <t>FM</t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2065,11 +2211,13 @@
           <t>FO</t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>0</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>FRO</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2087,11 +2235,13 @@
           <t>FR</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>0</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>25591</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2109,8 +2259,10 @@
           <t>GA</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>0</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GAB</t>
+        </is>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2131,11 +2283,13 @@
           <t>GB</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>0</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2153,8 +2307,10 @@
           <t>GD</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>0</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GRD</t>
+        </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2175,11 +2331,13 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>0</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -2197,8 +2355,10 @@
           <t>GF</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>GUF</t>
+        </is>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2219,8 +2379,10 @@
           <t>GG</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>0</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GGY</t>
+        </is>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2241,8 +2403,10 @@
           <t>GH</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>0</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2263,8 +2427,10 @@
           <t>GI</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>0</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GIB</t>
+        </is>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2285,8 +2451,10 @@
           <t>GL</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>0</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>GRL</t>
+        </is>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2307,8 +2475,10 @@
           <t>GM</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>0</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2329,8 +2499,10 @@
           <t>GN</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>0</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2351,11 +2523,13 @@
           <t>GP</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>0</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GLP</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2373,8 +2547,10 @@
           <t>GQ</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>0</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GNQ</t>
+        </is>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2395,11 +2571,13 @@
           <t>GR</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>0</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>GRC</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2417,8 +2595,10 @@
           <t>GS</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>0</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SGS</t>
+        </is>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2439,11 +2619,13 @@
           <t>GT</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>0</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2461,11 +2643,13 @@
           <t>GU</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>0</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>GUM</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2483,8 +2667,10 @@
           <t>GW</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>0</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GNB</t>
+        </is>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2505,8 +2691,10 @@
           <t>GY</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>0</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2527,11 +2715,13 @@
           <t>HK</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>0</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>HKG</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2549,8 +2739,10 @@
           <t>HM</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>0</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>HMD</t>
+        </is>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2571,11 +2763,13 @@
           <t>HN</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>0</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2593,11 +2787,13 @@
           <t>HR</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>0</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>HRV</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2615,11 +2811,13 @@
           <t>HT</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>0</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>HTI</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2637,11 +2835,13 @@
           <t>HU</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>0</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>HUN</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2659,11 +2859,13 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>0</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2681,11 +2883,13 @@
           <t>IE</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>0</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>IRL</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2703,8 +2907,10 @@
           <t>IL</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>0</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2725,11 +2931,13 @@
           <t>IM</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>0</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>IMN</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -2747,11 +2955,13 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="B106" t="n">
-        <v>0</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2769,8 +2979,10 @@
           <t>IO</t>
         </is>
       </c>
-      <c r="B107" t="n">
-        <v>0</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>IOT</t>
+        </is>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -2791,8 +3003,10 @@
           <t>IQ</t>
         </is>
       </c>
-      <c r="B108" t="n">
-        <v>0</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>IRQ</t>
+        </is>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -2813,11 +3027,13 @@
           <t>IR</t>
         </is>
       </c>
-      <c r="B109" t="n">
-        <v>0</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>IRN</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2835,8 +3051,10 @@
           <t>IS</t>
         </is>
       </c>
-      <c r="B110" t="n">
-        <v>0</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ISL</t>
+        </is>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -2857,11 +3075,13 @@
           <t>IT</t>
         </is>
       </c>
-      <c r="B111" t="n">
-        <v>0</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2879,11 +3099,13 @@
           <t>JE</t>
         </is>
       </c>
-      <c r="B112" t="n">
-        <v>0</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>JEY</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2901,8 +3123,10 @@
           <t>JM</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>0</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2923,8 +3147,10 @@
           <t>JO</t>
         </is>
       </c>
-      <c r="B114" t="n">
-        <v>0</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>JOR</t>
+        </is>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -2945,11 +3171,13 @@
           <t>JP</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>JPN</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>215</v>
-      </c>
-      <c r="C115" t="n">
-        <v>71</v>
       </c>
       <c r="D115" t="n">
         <v>104</v>
@@ -2967,8 +3195,10 @@
           <t>KE</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>0</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -2989,11 +3219,13 @@
           <t>KG</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>0</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>KGZ</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -3011,8 +3243,10 @@
           <t>KH</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>0</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3033,8 +3267,10 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>0</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>KIR</t>
+        </is>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3055,8 +3291,10 @@
           <t>KM</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>0</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>COM</t>
+        </is>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3077,8 +3315,10 @@
           <t>KN</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>0</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3099,8 +3339,10 @@
           <t>KP</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>0</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>PRK</t>
+        </is>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3121,11 +3363,13 @@
           <t>KR</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>0</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>KOR</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
         <v>95</v>
@@ -3143,8 +3387,10 @@
           <t>KW</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>0</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>KWT</t>
+        </is>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3165,8 +3411,10 @@
           <t>KY</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>0</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CYM</t>
+        </is>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3187,11 +3435,13 @@
           <t>KZ</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>0</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>KAZ</t>
+        </is>
       </c>
       <c r="C126" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3209,8 +3459,10 @@
           <t>LA</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>0</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>LAO</t>
+        </is>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3231,11 +3483,13 @@
           <t>LB</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>0</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>LBN</t>
+        </is>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3253,8 +3507,10 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>0</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>LCA</t>
+        </is>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3275,11 +3531,13 @@
           <t>LI</t>
         </is>
       </c>
-      <c r="B130" t="n">
-        <v>0</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>LIE</t>
+        </is>
       </c>
       <c r="C130" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3297,8 +3555,10 @@
           <t>LK</t>
         </is>
       </c>
-      <c r="B131" t="n">
-        <v>0</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>LKA</t>
+        </is>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3319,8 +3579,10 @@
           <t>LR</t>
         </is>
       </c>
-      <c r="B132" t="n">
-        <v>0</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>LBR</t>
+        </is>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3341,8 +3603,10 @@
           <t>LS</t>
         </is>
       </c>
-      <c r="B133" t="n">
-        <v>0</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3363,11 +3627,13 @@
           <t>LT</t>
         </is>
       </c>
-      <c r="B134" t="n">
-        <v>0</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>LTU</t>
+        </is>
       </c>
       <c r="C134" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -3385,11 +3651,13 @@
           <t>LU</t>
         </is>
       </c>
-      <c r="B135" t="n">
-        <v>0</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>LUX</t>
+        </is>
       </c>
       <c r="C135" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -3407,11 +3675,13 @@
           <t>LV</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>0</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>LVA</t>
+        </is>
       </c>
       <c r="C136" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3429,8 +3699,10 @@
           <t>LY</t>
         </is>
       </c>
-      <c r="B137" t="n">
-        <v>0</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -3451,11 +3723,13 @@
           <t>MA</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>0</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3473,8 +3747,10 @@
           <t>MC</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>0</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -3495,11 +3771,13 @@
           <t>MD</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>0</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MDA</t>
+        </is>
       </c>
       <c r="C140" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -3517,11 +3795,13 @@
           <t>ME</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>0</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MNE</t>
+        </is>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3539,11 +3819,13 @@
           <t>MF</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>0</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3561,11 +3843,13 @@
           <t>MG</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>0</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -3583,8 +3867,10 @@
           <t>MH</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>0</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MHL</t>
+        </is>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -3605,8 +3891,10 @@
           <t>MK</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>0</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MKD</t>
+        </is>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -3627,8 +3915,10 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>0</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -3649,8 +3939,10 @@
           <t>MM</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>0</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>MMR</t>
+        </is>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -3671,8 +3963,10 @@
           <t>MN</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>0</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>MNG</t>
+        </is>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -3693,8 +3987,10 @@
           <t>MO</t>
         </is>
       </c>
-      <c r="B149" t="n">
-        <v>0</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -3715,8 +4011,10 @@
           <t>MP</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>0</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MNP</t>
+        </is>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -3737,11 +4035,13 @@
           <t>MQ</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>0</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MTQ</t>
+        </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -3759,8 +4059,10 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>0</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -3781,8 +4083,10 @@
           <t>MS</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>0</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MSR</t>
+        </is>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -3803,8 +4107,10 @@
           <t>MT</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>0</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MLT</t>
+        </is>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -3825,8 +4131,10 @@
           <t>MU</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>0</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MUS</t>
+        </is>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -3847,8 +4155,10 @@
           <t>MV</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>0</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MDV</t>
+        </is>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -3869,8 +4179,10 @@
           <t>MW</t>
         </is>
       </c>
-      <c r="B157" t="n">
-        <v>0</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -3891,11 +4203,13 @@
           <t>MX</t>
         </is>
       </c>
-      <c r="B158" t="n">
-        <v>0</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
       </c>
       <c r="C158" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -3913,8 +4227,10 @@
           <t>MY</t>
         </is>
       </c>
-      <c r="B159" t="n">
-        <v>0</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -3935,8 +4251,10 @@
           <t>MZ</t>
         </is>
       </c>
-      <c r="B160" t="n">
-        <v>0</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -3957,8 +4275,10 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>0</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -3979,11 +4299,13 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="B162" t="n">
-        <v>0</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>NCL</t>
+        </is>
       </c>
       <c r="C162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4001,8 +4323,10 @@
           <t>NE</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>0</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4023,8 +4347,10 @@
           <t>NF</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>0</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>NFK</t>
+        </is>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4045,8 +4371,10 @@
           <t>NG</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>0</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>NGA</t>
+        </is>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4067,11 +4395,13 @@
           <t>NI</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>0</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
       </c>
       <c r="C166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4089,11 +4419,13 @@
           <t>NL</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>0</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
       </c>
       <c r="C167" t="n">
-        <v>9833</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -4111,11 +4443,13 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
         <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>712</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -4133,8 +4467,10 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="B169" t="n">
-        <v>0</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>NPL</t>
+        </is>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4155,8 +4491,10 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="B170" t="n">
-        <v>0</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>NRU</t>
+        </is>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4177,8 +4515,10 @@
           <t>NU</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>0</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>NIU</t>
+        </is>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4199,11 +4539,13 @@
           <t>NZ</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>0</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
       </c>
       <c r="C172" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4221,8 +4563,10 @@
           <t>OM</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>0</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>OMN</t>
+        </is>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4243,8 +4587,10 @@
           <t>PA</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>0</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4265,11 +4611,13 @@
           <t>PE</t>
         </is>
       </c>
-      <c r="B175" t="n">
-        <v>0</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
       </c>
       <c r="C175" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -4287,11 +4635,13 @@
           <t>PF</t>
         </is>
       </c>
-      <c r="B176" t="n">
-        <v>0</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>PYF</t>
+        </is>
       </c>
       <c r="C176" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -4309,8 +4659,10 @@
           <t>PG</t>
         </is>
       </c>
-      <c r="B177" t="n">
-        <v>0</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>PNG</t>
+        </is>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -4331,8 +4683,10 @@
           <t>PH</t>
         </is>
       </c>
-      <c r="B178" t="n">
-        <v>0</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -4353,11 +4707,13 @@
           <t>PK</t>
         </is>
       </c>
-      <c r="B179" t="n">
-        <v>0</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>PAK</t>
+        </is>
       </c>
       <c r="C179" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4375,11 +4731,13 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>0</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
       </c>
       <c r="C180" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -4397,11 +4755,13 @@
           <t>PM</t>
         </is>
       </c>
-      <c r="B181" t="n">
-        <v>0</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SPM</t>
+        </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -4419,8 +4779,10 @@
           <t>PN</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>0</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>PCN</t>
+        </is>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -4441,11 +4803,13 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="B183" t="n">
-        <v>0</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>PRI</t>
+        </is>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -4463,8 +4827,10 @@
           <t>PS</t>
         </is>
       </c>
-      <c r="B184" t="n">
-        <v>0</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>PSE</t>
+        </is>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -4485,11 +4851,13 @@
           <t>PT</t>
         </is>
       </c>
-      <c r="B185" t="n">
-        <v>0</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
       </c>
       <c r="C185" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -4507,8 +4875,10 @@
           <t>PW</t>
         </is>
       </c>
-      <c r="B186" t="n">
-        <v>0</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>PLW</t>
+        </is>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -4529,11 +4899,13 @@
           <t>PY</t>
         </is>
       </c>
-      <c r="B187" t="n">
-        <v>0</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>PRY</t>
+        </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -4551,8 +4923,10 @@
           <t>QA</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>0</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>QAT</t>
+        </is>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -4573,11 +4947,13 @@
           <t>RE</t>
         </is>
       </c>
-      <c r="B189" t="n">
-        <v>0</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>REU</t>
+        </is>
       </c>
       <c r="C189" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -4595,11 +4971,13 @@
           <t>RO</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>0</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
       </c>
       <c r="C190" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -4617,11 +4995,13 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="B191" t="n">
-        <v>0</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -4639,11 +5019,13 @@
           <t>RU</t>
         </is>
       </c>
-      <c r="B192" t="n">
-        <v>0</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
       </c>
       <c r="C192" t="n">
-        <v>4467</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
         <v>6</v>
@@ -4661,8 +5043,10 @@
           <t>RW</t>
         </is>
       </c>
-      <c r="B193" t="n">
-        <v>0</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -4683,8 +5067,10 @@
           <t>SA</t>
         </is>
       </c>
-      <c r="B194" t="n">
-        <v>0</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -4705,8 +5091,10 @@
           <t>SB</t>
         </is>
       </c>
-      <c r="B195" t="n">
-        <v>0</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -4727,11 +5115,13 @@
           <t>SC</t>
         </is>
       </c>
-      <c r="B196" t="n">
-        <v>0</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SYC</t>
+        </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4749,8 +5139,10 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="B197" t="n">
-        <v>0</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>SDN</t>
+        </is>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -4771,11 +5163,13 @@
           <t>SE</t>
         </is>
       </c>
-      <c r="B198" t="n">
-        <v>0</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
       </c>
       <c r="C198" t="n">
-        <v>3335</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -4793,8 +5187,10 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="B199" t="n">
-        <v>0</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -4815,8 +5211,10 @@
           <t>SH</t>
         </is>
       </c>
-      <c r="B200" t="n">
-        <v>0</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SHN</t>
+        </is>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -4837,11 +5235,13 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="B201" t="n">
-        <v>0</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SVN</t>
+        </is>
       </c>
       <c r="C201" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -4859,8 +5259,10 @@
           <t>SJ</t>
         </is>
       </c>
-      <c r="B202" t="n">
-        <v>0</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SJM</t>
+        </is>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -4881,11 +5283,13 @@
           <t>SK</t>
         </is>
       </c>
-      <c r="B203" t="n">
-        <v>0</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
       </c>
       <c r="C203" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4903,8 +5307,10 @@
           <t>SL</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>0</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SLE</t>
+        </is>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -4925,8 +5331,10 @@
           <t>SM</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>0</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -4947,8 +5355,10 @@
           <t>SN</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>0</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -4969,8 +5379,10 @@
           <t>SO</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>0</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -4991,11 +5403,13 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="B208" t="n">
-        <v>0</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
       </c>
       <c r="C208" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -5013,8 +5427,10 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>0</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5035,8 +5451,10 @@
           <t>ST</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>0</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>STP</t>
+        </is>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5057,11 +5475,13 @@
           <t>SV</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>0</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SLV</t>
+        </is>
       </c>
       <c r="C211" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -5079,8 +5499,10 @@
           <t>SX</t>
         </is>
       </c>
-      <c r="B212" t="n">
-        <v>0</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SXM</t>
+        </is>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5101,8 +5523,10 @@
           <t>SY</t>
         </is>
       </c>
-      <c r="B213" t="n">
-        <v>0</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SYR</t>
+        </is>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5123,8 +5547,10 @@
           <t>SZ</t>
         </is>
       </c>
-      <c r="B214" t="n">
-        <v>0</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SWZ</t>
+        </is>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -5145,8 +5571,10 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="B215" t="n">
-        <v>0</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TCA</t>
+        </is>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -5167,8 +5595,10 @@
           <t>TD</t>
         </is>
       </c>
-      <c r="B216" t="n">
-        <v>0</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TCD</t>
+        </is>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -5189,8 +5619,10 @@
           <t>TF</t>
         </is>
       </c>
-      <c r="B217" t="n">
-        <v>0</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ATF</t>
+        </is>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -5211,8 +5643,10 @@
           <t>TG</t>
         </is>
       </c>
-      <c r="B218" t="n">
-        <v>0</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>TGO</t>
+        </is>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -5233,11 +5667,13 @@
           <t>TH</t>
         </is>
       </c>
-      <c r="B219" t="n">
-        <v>0</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
       </c>
       <c r="C219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -5255,8 +5691,10 @@
           <t>TJ</t>
         </is>
       </c>
-      <c r="B220" t="n">
-        <v>0</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>TJK</t>
+        </is>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -5277,8 +5715,10 @@
           <t>TK</t>
         </is>
       </c>
-      <c r="B221" t="n">
-        <v>0</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>TKL</t>
+        </is>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -5299,8 +5739,10 @@
           <t>TL</t>
         </is>
       </c>
-      <c r="B222" t="n">
-        <v>0</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -5321,8 +5763,10 @@
           <t>TM</t>
         </is>
       </c>
-      <c r="B223" t="n">
-        <v>0</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TKM</t>
+        </is>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -5343,11 +5787,13 @@
           <t>TN</t>
         </is>
       </c>
-      <c r="B224" t="n">
-        <v>0</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
       </c>
       <c r="C224" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -5365,11 +5811,13 @@
           <t>TO</t>
         </is>
       </c>
-      <c r="B225" t="n">
-        <v>0</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>TON</t>
+        </is>
       </c>
       <c r="C225" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -5387,11 +5835,13 @@
           <t>TR</t>
         </is>
       </c>
-      <c r="B226" t="n">
-        <v>0</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
       </c>
       <c r="C226" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -5409,8 +5859,10 @@
           <t>TT</t>
         </is>
       </c>
-      <c r="B227" t="n">
-        <v>0</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>TTO</t>
+        </is>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -5431,8 +5883,10 @@
           <t>TV</t>
         </is>
       </c>
-      <c r="B228" t="n">
-        <v>0</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TUV</t>
+        </is>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -5453,11 +5907,13 @@
           <t>TW</t>
         </is>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>TWN</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
         <v>5</v>
-      </c>
-      <c r="C229" t="n">
-        <v>15</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -5475,8 +5931,10 @@
           <t>TZ</t>
         </is>
       </c>
-      <c r="B230" t="n">
-        <v>0</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -5497,11 +5955,13 @@
           <t>UA</t>
         </is>
       </c>
-      <c r="B231" t="n">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
         <v>1</v>
-      </c>
-      <c r="C231" t="n">
-        <v>947</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -5519,8 +5979,10 @@
           <t>UG</t>
         </is>
       </c>
-      <c r="B232" t="n">
-        <v>0</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -5541,8 +6003,10 @@
           <t>UM</t>
         </is>
       </c>
-      <c r="B233" t="n">
-        <v>0</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>UMI</t>
+        </is>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -5563,11 +6027,13 @@
           <t>US</t>
         </is>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
         <v>1</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5555</v>
       </c>
       <c r="D234" t="n">
         <v>26</v>
@@ -5585,11 +6051,13 @@
           <t>UY</t>
         </is>
       </c>
-      <c r="B235" t="n">
-        <v>0</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>URY</t>
+        </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -5607,8 +6075,10 @@
           <t>UZ</t>
         </is>
       </c>
-      <c r="B236" t="n">
-        <v>0</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>UZB</t>
+        </is>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -5629,8 +6099,10 @@
           <t>VA</t>
         </is>
       </c>
-      <c r="B237" t="n">
-        <v>0</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>VAT</t>
+        </is>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -5651,8 +6123,10 @@
           <t>VC</t>
         </is>
       </c>
-      <c r="B238" t="n">
-        <v>0</v>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>VCT</t>
+        </is>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -5673,8 +6147,10 @@
           <t>VE</t>
         </is>
       </c>
-      <c r="B239" t="n">
-        <v>0</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>VEN</t>
+        </is>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -5695,8 +6171,10 @@
           <t>VG</t>
         </is>
       </c>
-      <c r="B240" t="n">
-        <v>0</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>VGB</t>
+        </is>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -5717,11 +6195,13 @@
           <t>VI</t>
         </is>
       </c>
-      <c r="B241" t="n">
-        <v>0</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>VIR</t>
+        </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -5739,8 +6219,10 @@
           <t>VN</t>
         </is>
       </c>
-      <c r="B242" t="n">
-        <v>0</v>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>VNM</t>
+        </is>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -5761,8 +6243,10 @@
           <t>VU</t>
         </is>
       </c>
-      <c r="B243" t="n">
-        <v>0</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>VUT</t>
+        </is>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -5783,8 +6267,10 @@
           <t>WF</t>
         </is>
       </c>
-      <c r="B244" t="n">
-        <v>0</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>WLF</t>
+        </is>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -5805,8 +6291,10 @@
           <t>WS</t>
         </is>
       </c>
-      <c r="B245" t="n">
-        <v>0</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>WSM</t>
+        </is>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -5827,8 +6315,10 @@
           <t>YE</t>
         </is>
       </c>
-      <c r="B246" t="n">
-        <v>0</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>YEM</t>
+        </is>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -5849,8 +6339,10 @@
           <t>YT</t>
         </is>
       </c>
-      <c r="B247" t="n">
-        <v>0</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>MYT</t>
+        </is>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -5871,11 +6363,13 @@
           <t>ZA</t>
         </is>
       </c>
-      <c r="B248" t="n">
-        <v>0</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
       </c>
       <c r="C248" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -5893,8 +6387,10 @@
           <t>ZM</t>
         </is>
       </c>
-      <c r="B249" t="n">
-        <v>0</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -5915,11 +6411,13 @@
           <t>ZW</t>
         </is>
       </c>
-      <c r="B250" t="n">
-        <v>0</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>

--- a/SumCountryCode.xlsx
+++ b/SumCountryCode.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,15 +439,20 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>アスパラガス</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>アズキ</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>アピオス</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>アーティチョーク</t>
         </is>
@@ -476,6 +481,9 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -500,6 +508,9 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,12 +527,15 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>37</v>
+      </c>
+      <c r="E4" t="n">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -548,6 +562,9 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -572,6 +589,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -588,12 +608,15 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -612,12 +635,15 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -636,12 +662,15 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,6 +697,9 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,12 +716,15 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -716,6 +751,9 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -732,12 +770,15 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -756,12 +797,15 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -780,12 +824,15 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,12 +851,15 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -828,12 +878,15 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,6 +913,9 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -884,6 +940,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -908,6 +967,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -924,12 +986,15 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3387</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>51</v>
       </c>
     </row>
@@ -956,6 +1021,9 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -972,12 +1040,15 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,6 +1075,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1028,6 +1102,9 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1052,6 +1129,9 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1076,6 +1156,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1100,6 +1183,9 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1124,6 +1210,9 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1140,12 +1229,15 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,6 +1264,9 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1188,12 +1283,15 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>78</v>
+      </c>
+      <c r="E32" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1220,6 +1318,9 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1236,12 +1337,15 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1268,6 +1372,9 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1292,6 +1399,9 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1308,12 +1418,15 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,6 +1453,9 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1356,12 +1472,15 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1647</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1142</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,6 +1507,9 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1412,6 +1534,9 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1436,6 +1561,9 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1460,6 +1588,9 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1476,12 +1607,15 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>19</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1508,6 +1642,9 @@
       <c r="F45" t="n">
         <v>0</v>
       </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1532,6 +1669,9 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1548,12 +1688,15 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,6 +1723,9 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1596,12 +1742,15 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
+        <v>80</v>
+      </c>
+      <c r="E49" t="n">
         <v>143</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1620,12 +1769,15 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>54</v>
       </c>
     </row>
@@ -1644,12 +1796,15 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1823,15 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1700,6 +1858,9 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1716,12 +1877,15 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1748,6 +1912,9 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1764,12 +1931,15 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1788,12 +1958,15 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,12 +1985,15 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>16276</v>
       </c>
       <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
         <v>17</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,6 +2020,9 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1860,12 +2039,15 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1534</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,12 +2066,15 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1908,12 +2093,15 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1938,6 +2126,9 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,12 +2147,15 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1980,12 +2174,15 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,6 +2209,9 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2036,6 +2236,9 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2060,6 +2263,9 @@
       <c r="F68" t="n">
         <v>0</v>
       </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2076,12 +2282,15 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>126</v>
       </c>
     </row>
@@ -2100,12 +2309,15 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2124,12 +2336,15 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2156,6 +2371,9 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2180,6 +2398,9 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2204,6 +2425,9 @@
       <c r="F74" t="n">
         <v>0</v>
       </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2220,12 +2444,15 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2244,12 +2471,15 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>25591</v>
       </c>
       <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
         <v>74</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2276,6 +2506,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2292,12 +2525,15 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
         <v>2</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2324,6 +2560,9 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2340,12 +2579,15 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2372,6 +2614,9 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2396,6 +2641,9 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2420,6 +2668,9 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2444,6 +2695,9 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2468,6 +2722,9 @@
       <c r="F85" t="n">
         <v>0</v>
       </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2492,6 +2749,9 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2516,6 +2776,9 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2532,12 +2795,15 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2564,6 +2830,9 @@
       <c r="F89" t="n">
         <v>0</v>
       </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2580,12 +2849,15 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2612,6 +2884,9 @@
       <c r="F91" t="n">
         <v>0</v>
       </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2628,12 +2903,15 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2652,12 +2930,15 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2684,6 +2965,9 @@
       <c r="F94" t="n">
         <v>0</v>
       </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2708,6 +2992,9 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2727,9 +3014,12 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2756,6 +3046,9 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2772,12 +3065,15 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2796,12 +3092,15 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2820,12 +3119,15 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2844,12 +3146,15 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2868,12 +3173,15 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,12 +3200,15 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2924,6 +3235,9 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2940,12 +3254,15 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2964,12 +3281,15 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
+        <v>16</v>
+      </c>
+      <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,6 +3316,9 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3020,6 +3343,9 @@
       <c r="F108" t="n">
         <v>0</v>
       </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3036,12 +3362,15 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,6 +3397,9 @@
       <c r="F110" t="n">
         <v>0</v>
       </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3084,12 +3416,15 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
         <v>83</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3108,12 +3443,15 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3140,6 +3478,9 @@
       <c r="F113" t="n">
         <v>0</v>
       </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3164,6 +3505,9 @@
       <c r="F114" t="n">
         <v>0</v>
       </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3180,12 +3524,15 @@
         <v>215</v>
       </c>
       <c r="D115" t="n">
+        <v>71</v>
+      </c>
+      <c r="E115" t="n">
         <v>104</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>42</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,6 +3559,9 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3228,12 +3578,15 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3260,6 +3613,9 @@
       <c r="F118" t="n">
         <v>0</v>
       </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3284,6 +3640,9 @@
       <c r="F119" t="n">
         <v>0</v>
       </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3308,6 +3667,9 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3332,6 +3694,9 @@
       <c r="F121" t="n">
         <v>0</v>
       </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3348,12 +3713,15 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>18</v>
       </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
       <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,12 +3740,15 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>23</v>
+      </c>
+      <c r="E123" t="n">
         <v>95</v>
       </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
       <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3404,6 +3775,9 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3428,6 +3802,9 @@
       <c r="F125" t="n">
         <v>0</v>
       </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3444,12 +3821,15 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,6 +3856,9 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3492,12 +3875,15 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3524,6 +3910,9 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3540,12 +3929,15 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3572,6 +3964,9 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3596,6 +3991,9 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3620,6 +4018,9 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3636,12 +4037,15 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3660,12 +4064,15 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,12 +4091,15 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3716,6 +4126,9 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3732,12 +4145,15 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3764,6 +4180,9 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3780,12 +4199,15 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,12 +4226,15 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3828,12 +4253,15 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4280,15 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,6 +4315,9 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3900,12 +4334,15 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
         <v>4</v>
       </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
       <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3932,6 +4369,9 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3956,6 +4396,9 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3980,6 +4423,9 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4004,6 +4450,9 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4028,6 +4477,9 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4044,12 +4496,15 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4076,6 +4531,9 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4100,6 +4558,9 @@
       <c r="F153" t="n">
         <v>0</v>
       </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4124,6 +4585,9 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4148,6 +4612,9 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4172,6 +4639,9 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4196,6 +4666,9 @@
       <c r="F157" t="n">
         <v>0</v>
       </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4212,12 +4685,15 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4244,6 +4720,9 @@
       <c r="F159" t="n">
         <v>0</v>
       </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4268,6 +4747,9 @@
       <c r="F160" t="n">
         <v>0</v>
       </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4292,6 +4774,9 @@
       <c r="F161" t="n">
         <v>0</v>
       </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4308,12 +4793,15 @@
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4340,6 +4828,9 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4364,6 +4855,9 @@
       <c r="F164" t="n">
         <v>0</v>
       </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4388,6 +4882,9 @@
       <c r="F165" t="n">
         <v>0</v>
       </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4404,12 +4901,15 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4428,12 +4928,15 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>9833</v>
       </c>
       <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
         <v>8</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4452,12 +4955,15 @@
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
         <v>12</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4476,12 +4982,15 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
         <v>2</v>
       </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
       <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,6 +5017,9 @@
       <c r="F170" t="n">
         <v>0</v>
       </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4532,6 +5044,9 @@
       <c r="F171" t="n">
         <v>0</v>
       </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4548,12 +5063,15 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4580,6 +5098,9 @@
       <c r="F173" t="n">
         <v>0</v>
       </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4604,6 +5125,9 @@
       <c r="F174" t="n">
         <v>0</v>
       </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4620,12 +5144,15 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4644,12 +5171,15 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,6 +5206,9 @@
       <c r="F177" t="n">
         <v>0</v>
       </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4692,12 +5225,15 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
         <v>1</v>
       </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
       <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4716,12 +5252,15 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,12 +5279,15 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4764,12 +5306,15 @@
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4796,6 +5341,9 @@
       <c r="F182" t="n">
         <v>0</v>
       </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4812,12 +5360,15 @@
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4844,6 +5395,9 @@
       <c r="F184" t="n">
         <v>0</v>
       </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4860,12 +5414,15 @@
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4892,6 +5449,9 @@
       <c r="F186" t="n">
         <v>0</v>
       </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4908,12 +5468,15 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4940,6 +5503,9 @@
       <c r="F188" t="n">
         <v>0</v>
       </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4956,12 +5522,15 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4980,12 +5549,15 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
+        <v>20</v>
+      </c>
+      <c r="E190" t="n">
         <v>1</v>
       </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
       <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5004,12 +5576,15 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5028,12 +5603,15 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
+        <v>4467</v>
+      </c>
+      <c r="E192" t="n">
         <v>6</v>
       </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
       <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5060,6 +5638,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5084,6 +5665,9 @@
       <c r="F194" t="n">
         <v>0</v>
       </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5108,6 +5692,9 @@
       <c r="F195" t="n">
         <v>0</v>
       </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5124,12 +5711,15 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5156,6 +5746,9 @@
       <c r="F197" t="n">
         <v>0</v>
       </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5172,12 +5765,15 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>3335</v>
       </c>
       <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
         <v>2</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,6 +5800,9 @@
       <c r="F199" t="n">
         <v>0</v>
       </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5228,6 +5827,9 @@
       <c r="F200" t="n">
         <v>0</v>
       </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5244,12 +5846,15 @@
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5276,6 +5881,9 @@
       <c r="F202" t="n">
         <v>0</v>
       </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5292,12 +5900,15 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
       </c>
       <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5324,6 +5935,9 @@
       <c r="F204" t="n">
         <v>0</v>
       </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5348,6 +5962,9 @@
       <c r="F205" t="n">
         <v>0</v>
       </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5372,6 +5989,9 @@
       <c r="F206" t="n">
         <v>0</v>
       </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5396,6 +6016,9 @@
       <c r="F207" t="n">
         <v>0</v>
       </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5412,12 +6035,15 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5444,6 +6070,9 @@
       <c r="F209" t="n">
         <v>0</v>
       </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5468,6 +6097,9 @@
       <c r="F210" t="n">
         <v>0</v>
       </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5484,12 +6116,15 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,6 +6151,9 @@
       <c r="F212" t="n">
         <v>0</v>
       </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5540,6 +6178,9 @@
       <c r="F213" t="n">
         <v>0</v>
       </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5564,6 +6205,9 @@
       <c r="F214" t="n">
         <v>0</v>
       </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5588,6 +6232,9 @@
       <c r="F215" t="n">
         <v>0</v>
       </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5612,6 +6259,9 @@
       <c r="F216" t="n">
         <v>0</v>
       </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5636,6 +6286,9 @@
       <c r="F217" t="n">
         <v>0</v>
       </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5660,6 +6313,9 @@
       <c r="F218" t="n">
         <v>0</v>
       </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5676,12 +6332,15 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5708,6 +6367,9 @@
       <c r="F220" t="n">
         <v>0</v>
       </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5732,6 +6394,9 @@
       <c r="F221" t="n">
         <v>0</v>
       </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5756,6 +6421,9 @@
       <c r="F222" t="n">
         <v>0</v>
       </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5780,6 +6448,9 @@
       <c r="F223" t="n">
         <v>0</v>
       </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5796,12 +6467,15 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5820,12 +6494,15 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5844,12 +6521,15 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
       </c>
       <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5876,6 +6556,9 @@
       <c r="F227" t="n">
         <v>0</v>
       </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5900,6 +6583,9 @@
       <c r="F228" t="n">
         <v>0</v>
       </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5916,12 +6602,15 @@
         <v>5</v>
       </c>
       <c r="D229" t="n">
+        <v>15</v>
+      </c>
+      <c r="E229" t="n">
         <v>1</v>
       </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
       <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,6 +6635,9 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5964,12 +6656,15 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
       </c>
       <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5996,6 +6691,9 @@
       <c r="F232" t="n">
         <v>0</v>
       </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6020,6 +6718,9 @@
       <c r="F233" t="n">
         <v>0</v>
       </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6036,12 +6737,15 @@
         <v>1</v>
       </c>
       <c r="D234" t="n">
+        <v>5555</v>
+      </c>
+      <c r="E234" t="n">
         <v>26</v>
       </c>
-      <c r="E234" t="n">
+      <c r="F234" t="n">
         <v>8986</v>
       </c>
-      <c r="F234" t="n">
+      <c r="G234" t="n">
         <v>43</v>
       </c>
     </row>
@@ -6060,12 +6764,15 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6092,6 +6799,9 @@
       <c r="F236" t="n">
         <v>0</v>
       </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6116,6 +6826,9 @@
       <c r="F237" t="n">
         <v>0</v>
       </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6140,6 +6853,9 @@
       <c r="F238" t="n">
         <v>0</v>
       </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6164,6 +6880,9 @@
       <c r="F239" t="n">
         <v>0</v>
       </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6188,6 +6907,9 @@
       <c r="F240" t="n">
         <v>0</v>
       </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6204,12 +6926,15 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6228,12 +6953,15 @@
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
       </c>
       <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6260,6 +6988,9 @@
       <c r="F243" t="n">
         <v>0</v>
       </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6284,6 +7015,9 @@
       <c r="F244" t="n">
         <v>0</v>
       </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6308,6 +7042,9 @@
       <c r="F245" t="n">
         <v>0</v>
       </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6332,6 +7069,9 @@
       <c r="F246" t="n">
         <v>0</v>
       </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6356,6 +7096,9 @@
       <c r="F247" t="n">
         <v>0</v>
       </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6372,12 +7115,15 @@
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
       </c>
       <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6404,6 +7150,9 @@
       <c r="F249" t="n">
         <v>0</v>
       </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6420,12 +7169,15 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="n">
         <v>0</v>
       </c>
     </row>
